--- a/Users Loads32.xlsx
+++ b/Users Loads32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.297279608557033</v>
+        <v>1.452655467151331</v>
       </c>
       <c r="C2" t="n">
-        <v>6.967677453630232</v>
+        <v>9.002301462397778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355310067945607</v>
+        <v>0.14453685936482</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.522370735988401</v>
+        <v>1.530240236146303</v>
       </c>
       <c r="C3" t="n">
-        <v>4.44386059529564</v>
+        <v>5.662932838612557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.152194997666016</v>
+        <v>0.1646698078461855</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.09217015822285</v>
+        <v>2.09693369154597</v>
       </c>
       <c r="C4" t="n">
-        <v>7.154078875671194</v>
+        <v>7.417766695608578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181149473705195</v>
+        <v>0.3603193133634053</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.88246050885987</v>
+        <v>2.375704881924857</v>
       </c>
       <c r="C5" t="n">
-        <v>6.299893789341284</v>
+        <v>2.651358042865527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2930740942302553</v>
+        <v>0.1149751518475411</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.43764303366272</v>
+        <v>3.221475119261219</v>
       </c>
       <c r="C6" t="n">
-        <v>3.575338467697531</v>
+        <v>2.731300435084626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2558759115203237</v>
+        <v>0.2618408025998836</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.28291827778801</v>
+        <v>3.735553683524884</v>
       </c>
       <c r="C7" t="n">
-        <v>3.350822454389762</v>
+        <v>4.575908499870541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3923722289650546</v>
+        <v>0.1912190204376858</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.84629399927438</v>
+        <v>4.65617803523349</v>
       </c>
       <c r="C8" t="n">
-        <v>8.520469280281</v>
+        <v>4.241836350494927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3133613093826177</v>
+        <v>0.2589437323175452</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.89541333256146</v>
+        <v>6.717545901270031</v>
       </c>
       <c r="C9" t="n">
-        <v>1.896619402093236</v>
+        <v>7.285945697967334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2344694496646133</v>
+        <v>0.3484315621182372</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.36397415608959</v>
+        <v>8.44668177676159</v>
       </c>
       <c r="C10" t="n">
-        <v>6.701779132589245</v>
+        <v>3.71962737981124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4703437386910524</v>
+        <v>0.2013327805231728</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.81575215232985</v>
+        <v>8.540373289135248</v>
       </c>
       <c r="C11" t="n">
-        <v>3.981322784204399</v>
+        <v>6.256924445512367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2950646025009227</v>
+        <v>0.3990945310545316</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.73302574815714</v>
+        <v>11.21653334512462</v>
       </c>
       <c r="C12" t="n">
-        <v>3.933635337674707</v>
+        <v>3.829948852636527</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2269829216743439</v>
+        <v>0.2301572287837012</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.89342669742604</v>
+        <v>15.83883632512221</v>
       </c>
       <c r="C13" t="n">
-        <v>9.096639155455362</v>
+        <v>4.319528713652799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2133652701963646</v>
+        <v>0.09623868781778294</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.1003184943396</v>
+        <v>16.9129082917815</v>
       </c>
       <c r="C14" t="n">
-        <v>2.823878423128351</v>
+        <v>5.773541513956777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1405792908488426</v>
+        <v>0.2652380919228087</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.11990918161392</v>
+        <v>17.38856521216392</v>
       </c>
       <c r="C15" t="n">
-        <v>12.51679876253537</v>
+        <v>7.698256076622296</v>
       </c>
       <c r="D15" t="n">
-        <v>0.459758517064517</v>
+        <v>0.4613594793625123</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.27508750232708</v>
+        <v>19.91536174196453</v>
       </c>
       <c r="C16" t="n">
-        <v>4.651389926590707</v>
+        <v>6.692394043266505</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4041385110702962</v>
+        <v>0.386762361739541</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.84727037842686</v>
+        <v>22.85897271718316</v>
       </c>
       <c r="C17" t="n">
-        <v>4.049561393443626</v>
+        <v>4.620255382778632</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6339903789225523</v>
+        <v>0.08152527407139126</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29.90223301436772</v>
+        <v>26.67320520941897</v>
       </c>
       <c r="C18" t="n">
-        <v>7.737487364432998</v>
+        <v>3.176985746275943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3291708999042073</v>
+        <v>0.2015213139249075</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.29519845214221</v>
+        <v>27.66354702550375</v>
       </c>
       <c r="C19" t="n">
-        <v>6.531659426539989</v>
+        <v>14.08303608642209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3783493427233285</v>
+        <v>0.2149323433376239</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.54462574936218</v>
+        <v>28.70247727028161</v>
       </c>
       <c r="C20" t="n">
-        <v>5.064989819771608</v>
+        <v>5.313851284673716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1832694393025924</v>
+        <v>0.3050444352187603</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.20920685993487</v>
+        <v>30.05858695471986</v>
       </c>
       <c r="C21" t="n">
-        <v>11.41327275100799</v>
+        <v>2.968920516797199</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5799993014330243</v>
+        <v>0.279827001873024</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.45829011409029</v>
+        <v>30.56893773599286</v>
       </c>
       <c r="C22" t="n">
-        <v>7.646331271058351</v>
+        <v>6.766039227958732</v>
       </c>
       <c r="D22" t="n">
-        <v>0.302203065791302</v>
+        <v>0.3366509627694773</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.80603218190828</v>
+        <v>31.09277546468668</v>
       </c>
       <c r="C23" t="n">
-        <v>11.29601849187736</v>
+        <v>3.656732824040027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4839593076600932</v>
+        <v>0.5902953229219223</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.13324733026213</v>
+        <v>31.1267731636808</v>
       </c>
       <c r="C24" t="n">
-        <v>8.596668677521075</v>
+        <v>7.347709472797354</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4376027347715369</v>
+        <v>0.4944925523735685</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>48.38928514625684</v>
+        <v>32.27245640385294</v>
       </c>
       <c r="C25" t="n">
-        <v>11.09129715142219</v>
+        <v>5.040453215570746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3065034335552095</v>
+        <v>0.3992900241488959</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.42181449290138</v>
+        <v>36.4937882261236</v>
       </c>
       <c r="C26" t="n">
-        <v>5.748503126906439</v>
+        <v>5.256632336748592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3949963628341879</v>
+        <v>0.4464011464351865</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53.50225915171209</v>
+        <v>37.7606065617028</v>
       </c>
       <c r="C27" t="n">
-        <v>3.296935276987955</v>
+        <v>6.302875366151429</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3029214241770593</v>
+        <v>0.3024330415014818</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.17887299265173</v>
+        <v>38.90022729922902</v>
       </c>
       <c r="C28" t="n">
-        <v>3.005198487272658</v>
+        <v>8.672912666682175</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1672041176915051</v>
+        <v>0.294558980864442</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.55791947667435</v>
+        <v>40.6600981704441</v>
       </c>
       <c r="C29" t="n">
-        <v>4.258907645166498</v>
+        <v>7.404715578667911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3691888175094343</v>
+        <v>0.2997867074351855</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58.76393390566799</v>
+        <v>42.4426235981546</v>
       </c>
       <c r="C30" t="n">
-        <v>5.871310297574968</v>
+        <v>7.535619559383209</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1994968023518122</v>
+        <v>0.3233352275849599</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.59889054782075</v>
+        <v>42.99122157416637</v>
       </c>
       <c r="C31" t="n">
-        <v>7.185407123169682</v>
+        <v>4.342673457589579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4135764899269332</v>
+        <v>0.1615180413393928</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.80981554310186</v>
+        <v>44.00313972899117</v>
       </c>
       <c r="C32" t="n">
-        <v>7.068307472290581</v>
+        <v>5.037195133038523</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2075191410643427</v>
+        <v>0.1822829325935605</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.55748049423565</v>
+        <v>44.65068332439179</v>
       </c>
       <c r="C33" t="n">
-        <v>5.870959902222832</v>
+        <v>5.704414598422658</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6244507083442292</v>
+        <v>0.391175677757596</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.38761577719598</v>
+        <v>45.90126257486216</v>
       </c>
       <c r="C34" t="n">
-        <v>6.988334793459905</v>
+        <v>4.868958522207582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1561766503264882</v>
+        <v>0.4090867395704323</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.2393860453025</v>
+        <v>48.51677440070429</v>
       </c>
       <c r="C35" t="n">
-        <v>14.20807976898029</v>
+        <v>7.726404403163232</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278555871343672</v>
+        <v>0.293834379235222</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.59330057097057</v>
+        <v>48.59996311526476</v>
       </c>
       <c r="C36" t="n">
-        <v>6.233678054719505</v>
+        <v>7.400503994431939</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2334345342484324</v>
+        <v>0.2020852561067015</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69.32068141456688</v>
+        <v>49.24374916834713</v>
       </c>
       <c r="C37" t="n">
-        <v>3.038437924254912</v>
+        <v>5.189907177153068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1425119979684963</v>
+        <v>0.3164227573648053</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.49737541849937</v>
+        <v>50.13056977584841</v>
       </c>
       <c r="C38" t="n">
-        <v>8.727281168155711</v>
+        <v>8.211183853928175</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2465848790593077</v>
+        <v>0.1327181373012397</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70.67814797698486</v>
+        <v>54.54366474609868</v>
       </c>
       <c r="C39" t="n">
-        <v>7.976944937527587</v>
+        <v>5.85797148604416</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4241104745346325</v>
+        <v>0.4296507218438935</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70.78384818401621</v>
+        <v>56.40793420904466</v>
       </c>
       <c r="C40" t="n">
-        <v>6.200845170298766</v>
+        <v>3.008149243530818</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1855149767494165</v>
+        <v>0.5213511509104333</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72.51430964637392</v>
+        <v>56.42351474086097</v>
       </c>
       <c r="C41" t="n">
-        <v>6.120077304126045</v>
+        <v>9.056637527335804</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1760120618754029</v>
+        <v>0.5446762026520946</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.64803189841714</v>
+        <v>57.01651287886276</v>
       </c>
       <c r="C42" t="n">
-        <v>5.409528222996419</v>
+        <v>7.689946999033065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2439637255607766</v>
+        <v>0.2339819493093075</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.20191785633776</v>
+        <v>57.78606009423005</v>
       </c>
       <c r="C43" t="n">
-        <v>7.375563902774458</v>
+        <v>6.466947197068706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2438612140655809</v>
+        <v>0.3722480964071053</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84.2960178080202</v>
+        <v>58.95415454993866</v>
       </c>
       <c r="C44" t="n">
-        <v>4.652655533811134</v>
+        <v>5.784845704224262</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1389035243895427</v>
+        <v>0.3215796441759429</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>87.14517853586348</v>
+        <v>59.30088846109105</v>
       </c>
       <c r="C45" t="n">
-        <v>6.910766623896844</v>
+        <v>2.590796877754809</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1482958816260406</v>
+        <v>0.1485218900214344</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.26511018657035</v>
+        <v>60.41409635776665</v>
       </c>
       <c r="C46" t="n">
-        <v>11.39292608531973</v>
+        <v>5.397674160995381</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2352102940366771</v>
+        <v>0.4838627063395299</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.31303308384783</v>
+        <v>60.76777699211669</v>
       </c>
       <c r="C47" t="n">
-        <v>9.720144942787728</v>
+        <v>10.48609903963651</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2254737639285231</v>
+        <v>0.4515972110822398</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,377 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>91.86640974777926</v>
+        <v>61.74569767529582</v>
       </c>
       <c r="C48" t="n">
-        <v>3.433543110136571</v>
+        <v>3.993341543643208</v>
       </c>
       <c r="D48" t="n">
-        <v>0.183234088268394</v>
+        <v>0.4301064775574309</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>62.00473611451248</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.392235147462969</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.443531329953228</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>65.54272817028023</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.60894398092449</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4312612642095092</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>67.31279205083058</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10.44467555843544</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3071860441617649</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>68.14935492224568</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.922543025035742</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.139519665880157</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>68.51068354760311</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.963267606988172</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.492949237450105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>68.85913771095731</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10.44707811292284</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3824173233751409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>69.36338781462435</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10.42435600266985</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.267847760911854</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>71.07306121371091</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.926013043616745</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2698917643130602</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>71.82827777409398</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.446854631473042</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1412125341062782</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>73.78774324403682</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.469340231789071</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.4850939065560733</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>76.33432613174223</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.549196705854865</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.271086965928218</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>77.01376224848245</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.68262041278794</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.1869398790624003</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>79.70323568647551</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.193088282135918</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2414863334179861</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>80.52708713568532</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.916230680364833</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1094226847938124</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>84.42186598340606</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7.036731597647719</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4206604806503861</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>84.50333346370068</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.3239409830327</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1503785840451847</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>85.65725773224199</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.993166014106106</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.184996217630928</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89.2709543434259</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.235744315598357</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.373639493822613</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89.45417966993168</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.624621999651204</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1499262540199049</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>91.15186981287195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11.12389251957844</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4839930543577219</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>92.5893845031046</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.113366479032526</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3674693278165844</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>94.71002842921969</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.93960394383676</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3001748441411214</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>96.48920304198303</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.68272858677714</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4978761357404759</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>97.13437737036693</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.357868416477</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4899175020057303</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>97.29753279989633</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.559017358906497</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1555420610243804</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>99.05510070507634</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.769626445485784</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1488188506050884</v>
       </c>
     </row>
   </sheetData>
